--- a/biology/Zoologie/Chironemus/Chironemus.xlsx
+++ b/biology/Zoologie/Chironemus/Chironemus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour le synonyme de genre d'acariens Chironemus Canestrini &amp; Fänzago, 1876, voir Tarsonemus.
 Chironemus est un genre de poissons marins de la famille des Chironemidae.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (16 avril 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (16 avril 2023) :
 Chironemus bicornis (Steindachner, 1898)
 Chironemus delfini (Porter, 1914)
 Chironemus georgianus Cuvier, 1829
@@ -550,10 +564,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Chironemus Cuvier, 1829[2].
-Chironemus a pour synonyme[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Chironemus Cuvier, 1829.
+Chironemus a pour synonyme :
 Threpterius Richardson, 1850</t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cuvier G., Valenciennes A. (1829). Histoire naturelle des poissons. Tome troisième. Suite du Livre troisième. Des percoïdes à dorsale unique à sept rayons branchiaux et à dents en velours ou en cardes. .G. Levrault. Paris. 500 pp.</t>
         </is>
